--- a/docs/unit1/10_findiff/findiff-1_clayblanket.xlsx
+++ b/docs/unit1/10_findiff/findiff-1_clayblanket.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10112"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/njones/My Drive (njones61@gmail.com)/work - byu/courses/CE 544/exercises/8. finite difference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04389360-2546-ED47-A94A-3DA3B3FA46D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8FEA7C-AE30-CD4B-B4A9-8DAF7D6A6012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="500" windowWidth="25800" windowHeight="17360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="500" windowWidth="28940" windowHeight="21340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,14 +394,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>7258</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>7258</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -418,8 +418,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipH="1">
-          <a:off x="428625" y="933450"/>
-          <a:ext cx="2428875" cy="0"/>
+          <a:off x="493335" y="1035353"/>
+          <a:ext cx="2711903" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -730,8 +730,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:KR87"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
